--- a/biology/Zoologie/Boucherie_canine/Boucherie_canine.xlsx
+++ b/biology/Zoologie/Boucherie_canine/Boucherie_canine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une boucherie canine est une boucherie spécialisée dans la vente et la transformation de viande de chien.
 </t>
@@ -511,19 +523,126 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La consommation de viande de chien, au fil des siècles, a concerné bon nombre de régions humaines. Pour assurer une filière à cette pratique, il a pu arriver qu'ouvrent des boucheries spécialisées dans le commerce de la viande de chien.
-En Europe
-En France, lors de la guerre de 1870, apparaissent à cause de la pénurie de produits alimentaires, des boucheries de chats, de chiens et de rats[1]. Des boucheries canines ont existé également aux Pays-Bas, comme l'atteste une publicité pour une « hondeslagerij » en 1928[2]. Au 21e siècle, aucune loi n'interdit la consommation de chien (et de chat) si l'animal est tué en respectant les règles d'abattage et d'hygiène prévues par le code rural[3].
-En Suisse, le commerce de la viande de chien est interdit, mais pas sa consommation[4].
-En 2004, il y a eu un projet de nouvelle boucherie canine à Hambourg en Allemagne[5], mais la réaction des associations de défense de la cause animale et des riverains a coupé court au projet. Quant à la boucherie canine sur internet, elle a existé en Autriche. Mais il s'agissait d'un projet artistique[6]
-En Asie
-En Corée du Sud, la plus grande d'entre elles, située à Seongnam au sud-est de Séoul, doit fermer en mai 2017[7].
-En Chine, à Yulin dans le Guangxi, les boucheries canines abattent environ 300 chiens chaque jour ; les réactions ont été très contrastées lors de l'organisation d'un festival de la viande de chien dans cette ville à partir de 2010, entre amateurs de viande de chien et défenseurs des animaux[8]. Toutefois, la loi évolue et les boucheries canines chinoises sont destinées à la fermeture, sous la pression des classes moyennes qui préfèrent le chien comme animal de compagnie plutôt que comme animal de boucherie[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, lors de la guerre de 1870, apparaissent à cause de la pénurie de produits alimentaires, des boucheries de chats, de chiens et de rats. Des boucheries canines ont existé également aux Pays-Bas, comme l'atteste une publicité pour une « hondeslagerij » en 1928. Au 21e siècle, aucune loi n'interdit la consommation de chien (et de chat) si l'animal est tué en respectant les règles d'abattage et d'hygiène prévues par le code rural.
+En Suisse, le commerce de la viande de chien est interdit, mais pas sa consommation.
+En 2004, il y a eu un projet de nouvelle boucherie canine à Hambourg en Allemagne, mais la réaction des associations de défense de la cause animale et des riverains a coupé court au projet. Quant à la boucherie canine sur internet, elle a existé en Autriche. Mais il s'agissait d'un projet artistique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Asie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Corée du Sud, la plus grande d'entre elles, située à Seongnam au sud-est de Séoul, doit fermer en mai 2017.
+En Chine, à Yulin dans le Guangxi, les boucheries canines abattent environ 300 chiens chaque jour ; les réactions ont été très contrastées lors de l'organisation d'un festival de la viande de chien dans cette ville à partir de 2010, entre amateurs de viande de chien et défenseurs des animaux. Toutefois, la loi évolue et les boucheries canines chinoises sont destinées à la fermeture, sous la pression des classes moyennes qui préfèrent le chien comme animal de compagnie plutôt que comme animal de boucherie.
 Toutefois, du fait de la réprobation quasi générale de la cynophagie, les boucheries canines établies comme les boucheries « traditionnelles » ou les chevalines sont moins fréquentes.
-En Polynésie
-À Tahiti, ce sont des « préparateurs » qui colportent la viande de chien, la consommation demeurant interdite depuis 1959 dans l'archipel[10]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boucherie_canine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Polynésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Tahiti, ce sont des « préparateurs » qui colportent la viande de chien, la consommation demeurant interdite depuis 1959 dans l'archipel. 
 </t>
         </is>
       </c>
